--- a/results/FrequencyTables/26796669_gLTR5.xlsx
+++ b/results/FrequencyTables/26796669_gLTR5.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00217706821480406</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.94</v>
+        <v>0.854862119013062</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00145137880986938</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="H2">
-        <v>0.91</v>
+        <v>0.873730043541364</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0362844702467344</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0.0297532656023222</v>
       </c>
       <c r="M2">
-        <v>0.95</v>
+        <v>0.831640058055152</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00725689404934688</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.991291727140784</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.34</v>
+        <v>0.421625544267054</v>
       </c>
       <c r="S2">
-        <v>0.04</v>
+        <v>0.0224963715529753</v>
       </c>
       <c r="T2">
-        <v>0.03</v>
+        <v>0.0943396226415094</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00290275761973875</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00145137880986938</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.06966618287373</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.87</v>
+        <v>0.870827285921626</v>
       </c>
       <c r="C3">
-        <v>0.98</v>
+        <v>0.971698113207547</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0145137880986938</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.997822931785196</v>
       </c>
       <c r="H3">
-        <v>0.06</v>
+        <v>0.0587808417997097</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.0159651669085631</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00290275761973875</v>
       </c>
       <c r="K3">
-        <v>0.14</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="L3">
-        <v>0.95</v>
+        <v>0.963715529753266</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00435413642960813</v>
       </c>
       <c r="N3">
-        <v>0.01</v>
+        <v>0.0341074020319303</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.991291727140784</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00217706821480406</v>
       </c>
       <c r="Q3">
-        <v>0.94</v>
+        <v>0.933962264150943</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="S3">
-        <v>0.03</v>
+        <v>0.0217706821480406</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00507982583454282</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.979680696661829</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.979680696661829</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.910740203193033</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.032656023222061</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0152394775036284</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00217706821480406</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.111030478955007</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.997822931785196</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03</v>
+        <v>0.0573294629898403</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00725689404934688</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00362844702467344</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00507982583454282</v>
       </c>
       <c r="L4">
-        <v>0.04</v>
+        <v>0.00653120464441219</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="N4">
-        <v>0.05</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00725689404934688</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0058055152394775</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0195936139332366</v>
       </c>
       <c r="R4">
-        <v>0.66</v>
+        <v>0.529753265602322</v>
       </c>
       <c r="S4">
-        <v>0.01</v>
+        <v>0.021044992743106</v>
       </c>
       <c r="T4">
-        <v>0.97</v>
+        <v>0.887518142235123</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.976052249637155</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00145137880986938</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00217706821480406</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00217706821480406</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.021044992743106</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.0108853410740203</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.983309143686502</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0145137880986938</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0101596516690856</v>
       </c>
       <c r="I5">
-        <v>0.99</v>
+        <v>0.97677793904209</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.957184325108853</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00362844702467344</v>
       </c>
       <c r="N5">
-        <v>0.94</v>
+        <v>0.920899854862119</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="Q5">
-        <v>0.06</v>
+        <v>0.04644412191582</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0101596516690856</v>
       </c>
       <c r="S5">
-        <v>0.92</v>
+        <v>0.934687953555878</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0130624092888244</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00145137880986938</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0166908563134978</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0174165457184325</v>
       </c>
     </row>
   </sheetData>
